--- a/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
+++ b/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930"/>
+    <workbookView windowWidth="28800" windowHeight="11520" tabRatio="532"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -169,6 +169,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -177,21 +252,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -199,17 +260,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,97 +299,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +328,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,31 +436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,55 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,79 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,11 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,32 +570,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,161 +605,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
+++ b/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>full_name *</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Sarai Kharbooza, Opposite E17 GT Road, Islamabad, Pakistan</t>
   </si>
   <si>
-    <t>1234567890123</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
@@ -173,6 +170,12 @@
   </si>
   <si>
     <t>Sarai Kharbooza, Opposite E19 GT Road, Islamabad, Pakistan</t>
+  </si>
+  <si>
+    <t>123456789012364, 1234567890125</t>
+  </si>
+  <si>
+    <t>relation1, relation2</t>
   </si>
 </sst>
 </file>
@@ -181,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -230,21 +233,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -252,8 +240,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +270,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -276,30 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +301,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -320,24 +338,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,22 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,74 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +619,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -687,142 +651,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,12 +834,15 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -868,6 +874,9 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1133,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:Q12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>
@@ -1156,303 +1165,307 @@
     <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="14.375" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="13.625" customWidth="1"/>
-    <col min="20" max="20" width="21.625" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:20">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="27" customHeight="1" spans="1:20">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>1234567</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>51223211212</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
-    <row r="3" customHeight="1" spans="1:20">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:20">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>1234568</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>51223211212</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="9" t="s">
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:20">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1234569</v>
+      </c>
+      <c r="K4" s="3">
+        <v>51223211212</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:20">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" ht="26.25" spans="1:20">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2">
-        <v>1234569</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J5" s="3">
+        <v>1234570</v>
+      </c>
+      <c r="K5" s="3">
         <v>51223211212</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:20">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1234570</v>
-      </c>
-      <c r="K5" s="2">
-        <v>51223211212</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="T5" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
+++ b/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
@@ -118,7 +118,7 @@
     <t>1234567890124</t>
   </si>
   <si>
-    <t>rawalpindi</t>
+    <t>sawat</t>
   </si>
   <si>
     <t>punjab</t>
@@ -163,7 +163,7 @@
     <t>1234567890126</t>
   </si>
   <si>
-    <t>Attockswat</t>
+    <t>Attock</t>
   </si>
   <si>
     <t>kpk</t>
@@ -183,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -218,6 +218,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -226,7 +249,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,130 +347,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,25 +384,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,133 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,35 +593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,13 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,171 +656,185 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>

--- a/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
+++ b/public/app-assets/ImportSamples/1-StakeholdersSample.xlsx
@@ -118,7 +118,7 @@
     <t>1234567890124</t>
   </si>
   <si>
-    <t>sawat</t>
+    <t>Sargodha</t>
   </si>
   <si>
     <t>punjab</t>
@@ -145,7 +145,7 @@
     <t>1234567890125</t>
   </si>
   <si>
-    <t>islambad</t>
+    <t>islamabad</t>
   </si>
   <si>
     <t>Sarai Kharbooza, Opposite E18 GT Road, Islamabad, Pakistan</t>
@@ -163,10 +163,10 @@
     <t>1234567890126</t>
   </si>
   <si>
-    <t>Attock</t>
-  </si>
-  <si>
-    <t>kpk</t>
+    <t>Haripur</t>
+  </si>
+  <si>
+    <t>Khyber Pakhtunkhwa</t>
   </si>
   <si>
     <t>Sarai Kharbooza, Opposite E19 GT Road, Islamabad, Pakistan</t>
@@ -183,8 +183,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -226,8 +226,136 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,134 +368,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +593,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,36 +624,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,7 +647,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,167 +676,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>
@@ -1152,9 +1152,9 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="8.375" customWidth="1"/>
@@ -1166,7 +1166,7 @@
     <col min="17" max="17" width="14.375" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
     <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>31</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>52</v>
